--- a/biology/Botanique/Paléopalynologie/Paléopalynologie.xlsx
+++ b/biology/Botanique/Paléopalynologie/Paléopalynologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pal%C3%A9opalynologie</t>
+          <t>Paléopalynologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La paléopalynologie, aussi appelée archéopalynologie, est l'étude des microfossiles à parois organiques, tels que les paléopollens et paléospores, en tant qu'indices permettant de reconstituer les âges relatifs, les biozones, les paléoenvironnements, paléoclimats, etc. d'un passé plus ou moins récent à très ancien comme le Paléozoïque. Ces études nécessitent que les palynomorphes fossiles aient été conservés en quantité et qualité significatives pour les périodes considérées.
 C'est l'application la plus largement développée de la palynologie. Elle est notamment importante en recherche pétrolière, et pour l'évaluation rétrospective de la réponse des écosystèmes à des changements climatiques. La pionnière en est Arlette Leroi-Gourhan (1913-2005).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pal%C3%A9opalynologie</t>
+          <t>Paléopalynologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot provient du grec paleo, ancien ; palunein, saupoudrer (qui évoque le pollen) ; et logos, discours, science.
 Le mot « archéopalynologie » est également couramment employé[n 1].
-Les mots « palynologiste » et « palynologue » sont tous deux usités[1].
+Les mots « palynologiste » et « palynologue » sont tous deux usités.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pal%C3%A9opalynologie</t>
+          <t>Paléopalynologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pionnière de la paléopalynologie est Arlette Leroi-Gourhan, également paléoethnobotaniste. Elle a fait ses armes sur le site des grottes d'Arcy-sur-Cure, dans l'Yonne, avec son mari André Leroi-Gourhan, et a travaillé sur de nombreux autres sites archéologiques en France et à l'étranger. Elle a notamment analysé l'environnement du squelette fossile néandertalien Shanidar IV (dite la « tombe aux fleurs »), en Irak, et la momie de Ramsès II, en Égypte. Elle a formé de nombreux paléopalynologues de future renommée internationale[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pionnière de la paléopalynologie est Arlette Leroi-Gourhan, également paléoethnobotaniste. Elle a fait ses armes sur le site des grottes d'Arcy-sur-Cure, dans l'Yonne, avec son mari André Leroi-Gourhan, et a travaillé sur de nombreux autres sites archéologiques en France et à l'étranger. Elle a notamment analysé l'environnement du squelette fossile néandertalien Shanidar IV (dite la « tombe aux fleurs »), en Irak, et la momie de Ramsès II, en Égypte. Elle a formé de nombreux paléopalynologues de future renommée internationale.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pal%C3%A9opalynologie</t>
+          <t>Paléopalynologie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Grâce à la résistance exceptionnelle de la sporopollénine, polymère naturel constituant principal de l'exine des pollens et des spores, cette discipline :
 apporte des éléments utiles dans les études de taxonomie des palynomorphes ;
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pal%C3%A9opalynologie</t>
+          <t>Paléopalynologie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les études passent généralement par les stades suivants :
 Échantillonnage (dans sédiments, tourbes, charbons..), via coupe ou carottage
